--- a/Sprint_Tracker.xlsx
+++ b/Sprint_Tracker.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Documents\MSD_Fall_2018\book-library-web-service-hufflepuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F177C306-2031-4FDE-8394-EC8CB1236EB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{369F2B51-C53E-4A7D-902F-FA39539755AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6912" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6912" activeTab="5" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -88,12 +92,6 @@
     <t>Design API following API Design Principles</t>
   </si>
   <si>
-    <t>Create PostgreSQL functions to be called from Flask</t>
-  </si>
-  <si>
-    <t>Implement Database models/tables in PostgreSQL</t>
-  </si>
-  <si>
     <t>Create APIs to handle basic requests and API routes in Flask</t>
   </si>
   <si>
@@ -131,6 +129,153 @@
   </si>
   <si>
     <t>Deploy Basic APIs with Postgres and Flask application to heroku</t>
+  </si>
+  <si>
+    <t>Create demo PostgreSQL functions to be called from Flask</t>
+  </si>
+  <si>
+    <t>Create a Middleware layer that connects database layer to routes module</t>
+  </si>
+  <si>
+    <t>Set up the project structure - divide the project into layers</t>
+  </si>
+  <si>
+    <t>Connect GitHub repository to Heroku</t>
+  </si>
+  <si>
+    <t>Configure CI/CD on Heroku for automatic deployments</t>
+  </si>
+  <si>
+    <t>Create a development pipeline on Heroku for Hufflepuff repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Continuous deployment by pushing to master branch.  </t>
+  </si>
+  <si>
+    <t>Configure one or more routes and handle them in separate modules</t>
+  </si>
+  <si>
+    <t>Implement Database models in python classes</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Oct 03 - Oct 9</t>
+  </si>
+  <si>
+    <t>Implement Flask-restplus for swagger API design documentation</t>
+  </si>
+  <si>
+    <t>Check Swagger API design documentation</t>
+  </si>
+  <si>
+    <t>Research for plug-ins for creating swagger API Documentation</t>
+  </si>
+  <si>
+    <t>Check and Install Flask Restplus library</t>
+  </si>
+  <si>
+    <t>Implement annotations for existing APIs</t>
+  </si>
+  <si>
+    <t>Change APIs and establish new routes using Flask-restplus</t>
+  </si>
+  <si>
+    <t>Establish response types to all APIs</t>
+  </si>
+  <si>
+    <t>Create Middleware methods as helper functions to API routes</t>
+  </si>
+  <si>
+    <t>Re-design Database models to support required API functionality</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>5,6,7</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Oct 10 - Oct 16</t>
+  </si>
+  <si>
+    <t>Implement Data persistance</t>
+  </si>
+  <si>
+    <t>Check libraries for adding data persistance to Flask Application</t>
+  </si>
+  <si>
+    <t>Research sqlalchemy and install flask-sqlalchemy</t>
+  </si>
+  <si>
+    <t>setup connection to Heroku PostgreSQL server</t>
+  </si>
+  <si>
+    <t>setup and implement a demo application to use PostgreSQL server</t>
+  </si>
+  <si>
+    <t>Create database connection and session and incorporate to app</t>
+  </si>
+  <si>
+    <t>Implement CRUD applications on basic resources</t>
+  </si>
+  <si>
+    <t>Create and test tables in PostgreSQL server</t>
+  </si>
+  <si>
+    <t>Test the resources and some routes and check data persistance</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Oct 17 - Oct 23</t>
+  </si>
+  <si>
+    <t>Follow API Design Guidelines</t>
+  </si>
+  <si>
+    <t>Check API design principles and review them</t>
+  </si>
+  <si>
+    <t>Re-design the API following Design Principles</t>
+  </si>
+  <si>
+    <t>Establish response types and statuses for all the API routes</t>
+  </si>
+  <si>
+    <t>Test API design and response types for all the API routes</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Oct 24 - Oct 30</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Conduct code review</t>
+  </si>
+  <si>
+    <t>Create new branches to implement new features</t>
+  </si>
+  <si>
+    <t>Complete working on these features</t>
+  </si>
+  <si>
+    <t>create different pull requests for these features</t>
+  </si>
+  <si>
+    <t>review and merge the code to the master branch</t>
+  </si>
+  <si>
+    <t>Code Reviews</t>
   </si>
 </sst>
 </file>
@@ -503,10 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71F351B-3A22-4A34-BEE3-6C12013A6A6A}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,10 +726,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -599,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -705,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -734,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -758,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -770,7 +918,7 @@
         <v>0.5</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -787,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -802,12 +950,12 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <f xml:space="preserve"> SUM(G5:G13)</f>
@@ -816,7 +964,7 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -824,7 +972,7 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -832,12 +980,12 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +996,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A4FB16-F5A0-4BCB-98B2-97A0AB1DFE2C}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,12 +1010,12 @@
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -874,10 +1025,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
@@ -914,133 +1065,257 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
       <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
       <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3"/>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1048,7 +1323,7 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1056,12 +1331,1204 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148C7CF-B274-4BAF-A0CE-2CE0AE65560D}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17EB690-886F-452A-8482-EC09B6658FBF}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B61CF0-D079-4A0F-BF4C-C862EE085168}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="A1:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2637D2E9-3160-4660-B0B8-EBF05EF1160D}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint_Tracker.xlsx
+++ b/Sprint_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Documents\MSD_Fall_2018\book-library-web-service-hufflepuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{369F2B51-C53E-4A7D-902F-FA39539755AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC70C3FE-9F49-459B-B22E-B3D287518FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6912" activeTab="5" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1001,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1934,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="A1:I23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint_Tracker.xlsx
+++ b/Sprint_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Documents\MSD_Fall_2018\book-library-web-service-hufflepuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC70C3FE-9F49-459B-B22E-B3D287518FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76575691-5970-4D54-80A2-EBEE3996C528}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6912" activeTab="5" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,14 +1001,14 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,7 +1699,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,7 +1934,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint_Tracker.xlsx
+++ b/Sprint_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Documents\MSD_Fall_2018\book-library-web-service-hufflepuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwalfc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76575691-5970-4D54-80A2-EBEE3996C528}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0731AA-0764-CB41-A57F-982988812113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6912" activeTab="5" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="9" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,13 @@
     <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sprint 11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="105">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -276,13 +281,82 @@
   </si>
   <si>
     <t>Code Reviews</t>
+  </si>
+  <si>
+    <t>Oct 31 - Nov 6</t>
+  </si>
+  <si>
+    <t>Design User model</t>
+  </si>
+  <si>
+    <t>Create new branches to implement new features for User</t>
+  </si>
+  <si>
+    <t>Nov 7 - Nov 14</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Design Loan model</t>
+  </si>
+  <si>
+    <t>Nov 15 - Nov 22</t>
+  </si>
+  <si>
+    <t>Design lists,notes model</t>
+  </si>
+  <si>
+    <t>Create new branches to implement new features for lists,notes</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Nov 23 - Nov 29</t>
+  </si>
+  <si>
+    <t>Figure out Email</t>
+  </si>
+  <si>
+    <t>Add admin to send emails</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Nov 30 - Dec 6</t>
+  </si>
+  <si>
+    <t>Check out react</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on react hangman </t>
+  </si>
+  <si>
+    <t>Work on testing services</t>
+  </si>
+  <si>
+    <t>Make final presesntation</t>
+  </si>
+  <si>
+    <t>Prepare for final class</t>
+  </si>
+  <si>
+    <t>Review all the work till now</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +376,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,13 +408,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,25 +739,25 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.77734375" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -683,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -736,7 +818,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -765,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -789,7 +871,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -818,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -842,7 +924,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -871,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -895,7 +977,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -924,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -953,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>31</v>
       </c>
@@ -962,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>26</v>
       </c>
@@ -970,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>27</v>
       </c>
@@ -978,12 +1060,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -991,6 +1073,518 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C0465-C6F5-B348-B268-918FADA4881C}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB83D8B9-15DA-EA40-BC63-B04B5EA7A7D3}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1005,25 +1599,25 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1087,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1114,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1141,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1170,7 +1764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1197,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1226,7 +1820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1255,7 +1849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1284,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1313,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>27</v>
       </c>
@@ -1329,12 +1923,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -1355,24 +1949,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -1380,7 +1974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +2003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1436,7 +2030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1465,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1492,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1521,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1548,7 +2142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1575,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1602,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1631,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1660,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>26</v>
       </c>
@@ -1668,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>27</v>
       </c>
@@ -1676,12 +2270,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -1702,24 +2296,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -1727,7 +2321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +2350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1783,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1810,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1837,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1866,7 +2460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1895,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -1903,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>27</v>
       </c>
@@ -1911,12 +2505,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -1937,24 +2531,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>67</v>
       </c>
@@ -1962,7 +2556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +2585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2018,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2045,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2072,7 +2666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2101,7 +2695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2128,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2157,7 +2751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2184,7 +2778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2213,7 +2807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2242,7 +2836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>27</v>
       </c>
@@ -2258,12 +2852,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -2280,27 +2874,27 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>74</v>
       </c>
@@ -2308,7 +2902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2337,7 +2931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2364,7 +2958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2391,7 +2985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2418,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2447,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2476,7 +3070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2505,7 +3099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>26</v>
       </c>
@@ -2513,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -2521,12 +3115,774 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDA113-1759-AF4B-BF29-1EC2415B6294}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7335CF-EA16-7A48-B728-1E9A5A294EDB}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B8E9B-5271-8E45-A4DF-736EDA0E1128}">
+  <dimension ref="A2:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>29</v>
       </c>

--- a/Sprint_Tracker.xlsx
+++ b/Sprint_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishwalfc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\OneDrive\Documents\Msd_Pull_Request\book-library-web-service-hufflepuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0731AA-0764-CB41-A57F-982988812113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{30651062-7492-45C9-8B5A-607FBFFA23E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="9" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" firstSheet="1" activeTab="5" xr2:uid="{86C090B3-F18B-44D0-BCD0-5CB0E23A9F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Sprint 10" sheetId="10" r:id="rId10"/>
     <sheet name="Sprint 11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="104">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Krishna</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Finished</t>
@@ -739,33 +736,33 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -773,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -785,57 +782,57 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -844,51 +841,51 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0.5</v>
@@ -897,51 +894,51 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -950,80 +947,80 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>0.5</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0.5</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -1032,42 +1029,42 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <f xml:space="preserve"> SUM(G5:G13)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1080,31 +1077,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C0465-C6F5-B348-B268-918FADA4881C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1124,143 +1127,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1.5</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -1269,27 +1272,27 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -1298,33 +1301,33 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1337,30 +1340,36 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1380,143 +1389,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1.5</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -1525,27 +1534,27 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -1554,33 +1563,33 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1599,33 +1608,33 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1645,170 +1654,170 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1817,27 +1826,27 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>0.5</v>
@@ -1846,27 +1855,27 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1875,27 +1884,27 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -1904,33 +1913,33 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1949,32 +1958,32 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1994,60 +2003,60 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>0.5</v>
@@ -2056,193 +2065,193 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>1.5</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -2251,33 +2260,33 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2296,32 +2305,32 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
       <c r="D2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2341,143 +2350,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -2486,33 +2495,33 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2531,32 +2540,32 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2576,170 +2585,170 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>1.5</v>
@@ -2748,54 +2757,54 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>1.5</v>
@@ -2804,27 +2813,27 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -2833,33 +2842,33 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2874,35 +2883,37 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2922,143 +2933,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -3067,27 +3078,27 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -3099,30 +3110,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3135,31 +3146,36 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3179,143 +3195,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -3324,27 +3340,27 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -3353,33 +3369,33 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3392,29 +3408,36 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3422,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3434,143 +3457,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -3579,27 +3602,27 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -3608,33 +3631,33 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3650,21 +3673,28 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3672,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3684,143 +3714,143 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1.5</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -3829,27 +3859,27 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -3858,33 +3888,33 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
